--- a/src/H24R....Uj9o.xlsx
+++ b/src/H24R....Uj9o.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -413,7 +413,7 @@
         <v>Token Amount</v>
       </c>
       <c r="D1" t="str">
-        <v>Token Accoun State</v>
+        <v>Token Account State</v>
       </c>
     </row>
     <row r="2">
@@ -430,9 +430,37 @@
         <v>notFrozen</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>7r3SUY3ueoGBo1foFGTyEAr3mDyYTPNYBW993gT695DA</v>
+      </c>
+      <c r="B3" t="str">
+        <v>UPJAmtwtr1GzY81o7m4kgTA2YNu5ZeAnKBuzsBciwUQ</v>
+      </c>
+      <c r="C3">
+        <v>11281.194540745</v>
+      </c>
+      <c r="D3" t="str">
+        <v>notFrozen</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>BBwDeWRwinR9JiCviRztHVsHAKiTQn9g7ioAG9BxM9AG</v>
+      </c>
+      <c r="B4" t="str">
+        <v>ABW9PphsAaY4ec1hauXb5o8F9kLGs54yTUZj7RsyQgoq</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="str">
+        <v>notFrozen</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>